--- a/Documents/ToDo.xlsx
+++ b/Documents/ToDo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Task title</t>
   </si>
@@ -109,6 +109,33 @@
       <t>identifiers</t>
     </r>
   </si>
+  <si>
+    <t>Progress</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Comments removing</t>
+  </si>
+  <si>
+    <t>Remove line and block comments from source code</t>
+  </si>
+  <si>
+    <t>5mh</t>
+  </si>
+  <si>
+    <t>InProgress</t>
+  </si>
+  <si>
+    <t>Tokens parsing</t>
+  </si>
+  <si>
+    <t>Convert source code (scope-identifiers structure) into the tokens</t>
+  </si>
+  <si>
+    <t>2mw</t>
+  </si>
 </sst>
 </file>
 
@@ -162,9 +189,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -479,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,10 +518,10 @@
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -506,8 +534,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -518,7 +549,44 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/ToDo.xlsx
+++ b/Documents/ToDo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Task title</t>
   </si>
@@ -135,6 +135,15 @@
   </si>
   <si>
     <t>2mw</t>
+  </si>
+  <si>
+    <t>Projects naming</t>
+  </si>
+  <si>
+    <t>Analyze and improve projects and namespaces naming</t>
+  </si>
+  <si>
+    <t>2md</t>
   </si>
 </sst>
 </file>
@@ -507,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,7 +578,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="2">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -586,6 +595,23 @@
         <v>6</v>
       </c>
       <c r="E4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Documents/ToDo.xlsx
+++ b/Documents/ToDo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Task title</t>
   </si>
@@ -125,9 +125,6 @@
     <t>5mh</t>
   </si>
   <si>
-    <t>InProgress</t>
-  </si>
-  <si>
     <t>Tokens parsing</t>
   </si>
   <si>
@@ -144,6 +141,18 @@
   </si>
   <si>
     <t>2md</t>
+  </si>
+  <si>
+    <t>Analyze Visual Studio features for test-cases</t>
+  </si>
+  <si>
+    <t>1mm</t>
+  </si>
+  <si>
+    <t>In Queue</t>
+  </si>
+  <si>
+    <t>Native testing improvements</t>
   </si>
 </sst>
 </file>
@@ -516,18 +525,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -575,21 +584,21 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -600,18 +609,35 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Documents/ToDo.xlsx
+++ b/Documents/ToDo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Task title</t>
   </si>
@@ -38,121 +38,31 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Identifiers declaration</t>
-  </si>
-  <si>
-    <t>1mw</t>
-  </si>
-  <si>
-    <t>Analysis</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Parse </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>source code</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> into the tree-like structure of </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>scopes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>identifiers</t>
-    </r>
-  </si>
-  <si>
     <t>Progress</t>
   </si>
   <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>Comments removing</t>
-  </si>
-  <si>
-    <t>Remove line and block comments from source code</t>
-  </si>
-  <si>
-    <t>5mh</t>
-  </si>
-  <si>
-    <t>Tokens parsing</t>
-  </si>
-  <si>
-    <t>Convert source code (scope-identifiers structure) into the tokens</t>
-  </si>
-  <si>
-    <t>2mw</t>
-  </si>
-  <si>
-    <t>Projects naming</t>
-  </si>
-  <si>
-    <t>Analyze and improve projects and namespaces naming</t>
-  </si>
-  <si>
-    <t>2md</t>
-  </si>
-  <si>
-    <t>Analyze Visual Studio features for test-cases</t>
-  </si>
-  <si>
-    <t>1mm</t>
-  </si>
-  <si>
-    <t>In Queue</t>
-  </si>
-  <si>
-    <t>Native testing improvements</t>
+    <t>Braces</t>
+  </si>
+  <si>
+    <t>Nested declarations</t>
+  </si>
+  <si>
+    <t>Multiple declarations</t>
+  </si>
+  <si>
+    <t>a, b: space {};</t>
+  </si>
+  <si>
+    <t>a: (space {});</t>
+  </si>
+  <si>
+    <t>a: b: space {};</t>
+  </si>
+  <si>
+    <t>Multiple definitions</t>
+  </si>
+  <si>
+    <t>a: space {}, space {};</t>
   </si>
 </sst>
 </file>
@@ -178,7 +88,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -207,13 +116,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -229,9 +139,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -269,7 +179,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -375,7 +285,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -525,18 +435,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -553,93 +464,50 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
